--- a/backend/db_mia.xlsx
+++ b/backend/db_mia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg\dev\testAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg\dev\datathon2Bio\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705E0E98-B441-4CBD-88E6-14F5D7BDB95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5948D799-70C9-43B1-B0AB-90CC67265A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-800" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -3220,10 +3220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF02E344-E858-4D23-9F88-CCE308A0FAA0}">
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6158,6 +6158,972 @@
         <v>277</v>
       </c>
     </row>
+    <row r="41" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>3081088613</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1">
+        <v>59703800</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1319277497</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1">
+        <v>43117360</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1318083751</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1">
+        <v>98047360</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>4104105637</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1">
+        <v>22874010</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>215875096</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1">
+        <v>90158670</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1320497570</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1">
+        <v>58567220</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2594442904</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1">
+        <v>10387670</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>4406768202</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1">
+        <v>23039950</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>477210473</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1">
+        <v>23053350</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>4846361572</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1">
+        <v>65039210</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>2442966761</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1">
+        <v>86811830</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1061114992</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1">
+        <v>85509480</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1698386522</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1">
+        <v>93902280</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1698869741</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1">
+        <v>86080330</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U5" r:id="rId1" xr:uid="{980A9992-C067-4EBF-93B5-AB1CDE56DB72}"/>
@@ -6173,980 +7139,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FA0166-6AB1-4E60-A273-9F5F93ADEA9C}">
-  <dimension ref="A2:Y76"/>
+  <dimension ref="A16:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD76"/>
+      <selection activeCell="A15" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>3081088613</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1">
-        <v>59703800</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1319277497</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1">
-        <v>43117360</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1318083751</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1">
-        <v>98047360</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4104105637</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1">
-        <v>22874010</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>215875096</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1">
-        <v>90158670</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1320497570</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1">
-        <v>58567220</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2594442904</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1">
-        <v>10387670</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4406768202</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1">
-        <v>23039950</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>477210473</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1">
-        <v>23053350</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4846361572</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1">
-        <v>65039210</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2442966761</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1">
-        <v>86811830</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1061114992</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1">
-        <v>85509480</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1698386522</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1">
-        <v>93902280</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1698869741</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1">
-        <v>86080330</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
     <row r="16" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1698582600</v>

--- a/backend/db_mia.xlsx
+++ b/backend/db_mia.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg\dev\datathon2Bio\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF977C2B-999C-4E11-B622-87ED7D360F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A103136-D55C-4D15-9FAE-DE0FD4FF601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-800" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="522">
   <si>
     <t>gbifID</t>
   </si>
@@ -271,9 +270,6 @@
     <t>c8d737e0-2ff8-42e8-b8fc-6b805d26fc5f</t>
   </si>
   <si>
-    <t>04ce62dd-30ec-4d98-8b30-b09cafc3ac38</t>
-  </si>
-  <si>
     <t>50c9509d-22c7-4a22-a47d-8c48425ef4a7</t>
   </si>
   <si>
@@ -373,9 +369,6 @@
     <t>https://www.gbif.org/species/5218768</t>
   </si>
   <si>
-    <t>983c4ccb-377d-412f-9eb8-6d96d0c620fa</t>
-  </si>
-  <si>
     <t>Glossophaga longirostris</t>
   </si>
   <si>
@@ -385,28 +378,10 @@
     <t>Glossophaga longirostris Miller, 1898</t>
   </si>
   <si>
-    <t>Rodentia</t>
-  </si>
-  <si>
     <t>a9a819bb-b94e-4e06-bbbd-4cc1eb6f3b1c</t>
   </si>
   <si>
     <t>3ecddc17-a081-4e85-92c3-d8e31716342c</t>
-  </si>
-  <si>
-    <t>Cricetidae</t>
-  </si>
-  <si>
-    <t>Nectomys</t>
-  </si>
-  <si>
-    <t>Nectomys magdalenae</t>
-  </si>
-  <si>
-    <t>https://www.gbif.org/species/5706775</t>
-  </si>
-  <si>
-    <t>Nectomys cf. magdalenae</t>
   </si>
   <si>
     <t>Carnivora</t>
@@ -1284,12 +1259,6 @@
   </si>
   <si>
     <t>https://api.gbif.org/v1/image/cache/200x/occurrence/3124598415/media/57ff582eb4223843e062b4a1204b86da</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nectomys es un género de roedores de la familia Cricetidae, comúnmente denominados ratas de agua o ratas nadadoras de pies escamosos.  Se trata de ratas entre los 13 y 23 cm de longitud del cuerpo y 15 a 23 cm de largo de la cola, siendo las hembras un poco menores que los machos. Las vibrisas son cortas; las orejas son notorias, desnudas arriba y peludas en la base. El pelo es suave y denso, en el lomo es pardo obscuro a negruzco; en el vientre es gris brillante, con diversos tonos amarillos; en las patas es corto de color crema. Los dedos están unidos por membranas interdigitales. </t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Abhandlungen_der_K%C3%B6niglichen_Akademie_der_Wissenschaften_in_Berlin_%281860%29_%2816765395292%29.jpg/250px-Abhandlungen_der_K%C3%B6niglichen_Akademie_der_Wissenschaften_in_Berlin_%281860%29_%2816765395292%29.jpg</t>
   </si>
   <si>
     <t>https://multimedia20stg.blob.core.windows.net/especiesreduced/cerdocyon-thous_ac.jpg</t>
@@ -2653,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF02E344-E858-4D23-9F88-CCE308A0FAA0}">
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D65" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,10 +2675,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
@@ -2745,7 +2714,7 @@
         <v>21</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="75" x14ac:dyDescent="0.25">
@@ -2753,40 +2722,40 @@
         <v>3408070925</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>404</v>
-      </c>
       <c r="M2" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>41</v>
@@ -2795,7 +2764,7 @@
         <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
@@ -2806,19 +2775,19 @@
         <v>94918740</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="75" x14ac:dyDescent="0.25">
@@ -2829,37 +2798,37 @@
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>49</v>
@@ -2879,19 +2848,19 @@
         <v>73949380</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="75" x14ac:dyDescent="0.25">
@@ -2899,40 +2868,40 @@
         <v>1707659029</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>43</v>
@@ -2952,19 +2921,19 @@
         <v>73942620</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="75" x14ac:dyDescent="0.25">
@@ -2972,40 +2941,40 @@
         <v>1987303996</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>39</v>
@@ -3014,7 +2983,7 @@
         <v>25</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
@@ -3025,19 +2994,19 @@
         <v>24332270</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="75" x14ac:dyDescent="0.25">
@@ -3045,40 +3014,40 @@
         <v>2871446905</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>40</v>
@@ -3098,19 +3067,19 @@
         <v>57873830</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="75" x14ac:dyDescent="0.25">
@@ -3118,40 +3087,40 @@
         <v>1707663837</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>49</v>
@@ -3171,19 +3140,19 @@
         <v>52187680</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="75" x14ac:dyDescent="0.25">
@@ -3191,40 +3160,40 @@
         <v>1848593963</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>54</v>
@@ -3244,69 +3213,69 @@
         <v>24331920</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>727775243</v>
+        <v>4597284513</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>119</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
@@ -3314,72 +3283,72 @@
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1">
-        <v>57067750</v>
+        <v>24345840</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>4597284513</v>
+        <v>4011625476</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
@@ -3387,72 +3356,72 @@
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1">
-        <v>24345840</v>
+        <v>52191730</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4011625476</v>
+        <v>3903114138</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
@@ -3460,291 +3429,291 @@
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1">
-        <v>52191730</v>
+        <v>24345660</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>3903114138</v>
+        <v>1322797944</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1">
-        <v>24345660</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>131</v>
+        <v>24345840</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1322797944</v>
+        <v>3118572191</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1">
-        <v>24345840</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>134</v>
+        <v>24334010</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>3118572191</v>
+        <v>1427426450</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1">
-        <v>24334010</v>
+        <v>24348830</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1427426450</v>
+        <v>2451542620</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
@@ -3752,72 +3721,72 @@
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1">
-        <v>24348830</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>143</v>
+        <v>24347790</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2451542620</v>
+        <v>4080932850</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
@@ -3825,72 +3794,72 @@
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1">
-        <v>24347790</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>153</v>
+        <v>24348140</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>4080932850</v>
+        <v>2837069617</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
@@ -3898,145 +3867,145 @@
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1">
-        <v>24348140</v>
+        <v>74773340</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2837069617</v>
+        <v>3003806386</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>434</v>
+        <v>426</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1">
-        <v>74773340</v>
+        <v>24252150</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3003806386</v>
+        <v>657407603</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
@@ -4044,51 +4013,49 @@
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1">
-        <v>24252150</v>
+        <v>24250040</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>657407603</v>
+        <v>686831743</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>23</v>
@@ -4096,20 +4063,20 @@
       <c r="K20" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>438</v>
+      <c r="L20" t="s">
+        <v>430</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
@@ -4117,141 +4084,143 @@
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1">
-        <v>24250040</v>
+        <v>24427820</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>686831743</v>
+        <v>1829118779</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L21" t="s">
-        <v>440</v>
+        <v>171</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1">
-        <v>24427820</v>
+        <v>24423610</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1829118779</v>
+        <v>3026234157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="G22" s="1" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
@@ -4259,72 +4228,72 @@
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1">
-        <v>24423610</v>
+        <v>24835580</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>3026234157</v>
+        <v>2978380972</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
@@ -4332,72 +4301,72 @@
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1">
-        <v>24835580</v>
+        <v>24828990</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W23" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2978380972</v>
+        <v>2778317503</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
@@ -4405,72 +4374,72 @@
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1">
-        <v>24828990</v>
+        <v>95442850</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W24" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2778317503</v>
+        <v>4394790104</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
@@ -4478,63 +4447,63 @@
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1">
-        <v>95442850</v>
+        <v>24883700</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W25" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>4394790104</v>
+        <v>4820883318</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>50</v>
@@ -4543,7 +4512,7 @@
         <v>25</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
@@ -4551,72 +4520,72 @@
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1">
-        <v>24883700</v>
+        <v>73410880</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>4820883318</v>
+        <v>4608949525</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>453</v>
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>445</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
@@ -4624,72 +4593,72 @@
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1">
-        <v>73410880</v>
+        <v>57890520</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W27" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>4608949525</v>
+        <v>4292450491</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L28" t="s">
-        <v>455</v>
+        <v>208</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
@@ -4697,72 +4666,72 @@
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1">
-        <v>57890520</v>
+        <v>24891360</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W28" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>4292450491</v>
+        <v>2781296438</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>448</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
@@ -4770,72 +4739,72 @@
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1">
-        <v>24891360</v>
+        <v>24891600</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2781296438</v>
+        <v>4367334215</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>458</v>
+        <v>451</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
@@ -4843,72 +4812,72 @@
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1">
-        <v>24891600</v>
+        <v>52311030</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W30" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>4367334215</v>
+        <v>2781364417</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
@@ -4916,72 +4885,72 @@
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1">
-        <v>52311030</v>
+        <v>24874050</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2781364417</v>
+        <v>3581388583</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>462</v>
+        <v>217</v>
+      </c>
+      <c r="L32" t="s">
+        <v>455</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
@@ -4989,72 +4958,72 @@
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1">
-        <v>24874050</v>
+        <v>24874260</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W32" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>3581388583</v>
+        <v>4366580467</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="L33" t="s">
-        <v>465</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>464</v>
+        <v>457</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
@@ -5062,72 +5031,72 @@
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1">
-        <v>24874260</v>
+        <v>52307050</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W33" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>4366580467</v>
+        <v>4705773425</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L34" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
@@ -5135,63 +5104,63 @@
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1">
-        <v>52307050</v>
+        <v>24885170</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>4705773425</v>
+        <v>4657623018</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L35" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>50</v>
@@ -5200,7 +5169,7 @@
         <v>25</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
@@ -5208,72 +5177,72 @@
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1">
-        <v>24885170</v>
+        <v>24825640</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W35" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>4657623018</v>
+        <v>4368068635</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
@@ -5281,72 +5250,72 @@
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1">
-        <v>24825640</v>
+        <v>57888420</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>4368068635</v>
+        <v>4371259427</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
@@ -5354,145 +5323,145 @@
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1">
-        <v>57888420</v>
+        <v>24905430</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>4371259427</v>
+        <v>2235023529</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L38" t="s">
-        <v>475</v>
+        <v>260</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1">
-        <v>24905430</v>
+        <v>51871030</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>2235023529</v>
+        <v>2851338302</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
@@ -5500,72 +5469,72 @@
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1">
-        <v>51871030</v>
+        <v>21585460</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2851338302</v>
+        <v>1319277497</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
@@ -5573,66 +5542,66 @@
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1">
-        <v>21585460</v>
+        <v>43117360</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>1319277497</v>
+        <v>1320497570</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>25</v>
@@ -5646,218 +5615,218 @@
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1">
-        <v>43117360</v>
+        <v>58567220</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>1320497570</v>
+        <v>2442966761</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1">
-        <v>58567220</v>
+        <v>86811830</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>2442966761</v>
+        <v>4116041708</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1">
-        <v>86811830</v>
+        <v>57167400</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>4116041708</v>
+        <v>3888795835</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
@@ -5865,72 +5834,72 @@
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1">
-        <v>57167400</v>
+        <v>10638050</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>3888795835</v>
+        <v>4009684747</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
@@ -5938,72 +5907,72 @@
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1">
-        <v>10638050</v>
+        <v>21432110</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>4009684747</v>
+        <v>3759095366</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1" t="s">
@@ -6011,72 +5980,72 @@
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1">
-        <v>21432110</v>
+        <v>21746490</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>3759095366</v>
+        <v>3759091543</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>492</v>
+        <v>484</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>485</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1" t="s">
@@ -6084,72 +6053,72 @@
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1">
-        <v>21746490</v>
+        <v>21747450</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W47" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>3759091543</v>
+        <v>3903305937</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>495</v>
+        <v>486</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>487</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
@@ -6157,72 +6126,72 @@
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1">
-        <v>21747450</v>
+        <v>51709990</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>3903305937</v>
+        <v>3966740360</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="s">
@@ -6230,72 +6199,72 @@
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1">
-        <v>51709990</v>
+        <v>21595910</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>3966740360</v>
+        <v>3314405786</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
@@ -6303,72 +6272,72 @@
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1">
-        <v>21595910</v>
+        <v>22954420</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>3314405786</v>
+        <v>4421044942</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>500</v>
+        <v>337</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>492</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
@@ -6376,139 +6345,139 @@
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1">
-        <v>22954420</v>
+        <v>22239270</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W51" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>4421044942</v>
+        <v>2574318984</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>502</v>
+        <v>343</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>494</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1">
-        <v>22239270</v>
+        <v>22600760</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W52" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>2574318984</v>
+        <v>2574319875</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>25</v>
@@ -6522,63 +6491,63 @@
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1">
-        <v>22600760</v>
+        <v>22650990</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W53" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>2574319875</v>
+        <v>3081089280</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>31</v>
@@ -6595,72 +6564,72 @@
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1">
-        <v>22650990</v>
+        <v>22217510</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>3081089280</v>
+        <v>2013948146</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="H55" s="1" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="s">
@@ -6668,72 +6637,72 @@
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1">
-        <v>22217510</v>
+        <v>57912420</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>2013948146</v>
+        <v>4104100744</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1" t="s">
@@ -6741,72 +6710,72 @@
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1">
-        <v>57912420</v>
+        <v>92055320</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W56" s="1" t="s">
         <v>69</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>4104100744</v>
+        <v>3311641306</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>267</v>
+        <v>63</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
@@ -6814,72 +6783,72 @@
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1">
-        <v>92055320</v>
+        <v>82388860</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>3311641306</v>
+        <v>4131029333</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H58" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>63</v>
+        <v>358</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1" t="s">
@@ -6887,72 +6856,72 @@
       </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1">
-        <v>82388860</v>
+        <v>13271420</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>4131029333</v>
+        <v>4131029463</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1" t="s">
@@ -6960,145 +6929,145 @@
       </c>
       <c r="S59" s="1"/>
       <c r="T59" s="1">
-        <v>13271420</v>
+        <v>13141390</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W59" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>4131029463</v>
+        <v>4133737258</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="S60" s="1"/>
       <c r="T60" s="1">
-        <v>13141390</v>
+        <v>18934860</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W60" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>4133737258</v>
+        <v>4536028428</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1" t="s">
@@ -7106,63 +7075,63 @@
       </c>
       <c r="S61" s="1"/>
       <c r="T61" s="1">
-        <v>18934860</v>
+        <v>18967490</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W61" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>4536028428</v>
+        <v>4172145371</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>48</v>
@@ -7171,7 +7140,7 @@
         <v>25</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1" t="s">
@@ -7179,72 +7148,72 @@
       </c>
       <c r="S62" s="1"/>
       <c r="T62" s="1">
-        <v>18967490</v>
+        <v>19002490</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>4172145371</v>
+        <v>4516449662</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1" t="s">
@@ -7252,72 +7221,72 @@
       </c>
       <c r="S63" s="1"/>
       <c r="T63" s="1">
-        <v>19002490</v>
+        <v>19003030</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W63" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>4516449662</v>
+        <v>2028518226</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1" t="s">
@@ -7325,72 +7294,72 @@
       </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1">
-        <v>19003030</v>
+        <v>51322390</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>2028518226</v>
+        <v>2013685731</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1" t="s">
@@ -7398,121 +7367,34 @@
       </c>
       <c r="S65" s="1"/>
       <c r="T65" s="1">
-        <v>51322390</v>
+        <v>51322740</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W65" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>2013685731</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1">
-        <v>51322740</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="W66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X66" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y66" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U5" r:id="rId1" xr:uid="{980A9992-C067-4EBF-93B5-AB1CDE56DB72}"/>
-    <hyperlink ref="U13" r:id="rId2" xr:uid="{388E2DBE-13B4-4DFC-B631-C71ED8460DF4}"/>
-    <hyperlink ref="U16" r:id="rId3" xr:uid="{E8621780-EABA-4E47-B70B-6F9FF00F06C5}"/>
-    <hyperlink ref="M18" r:id="rId4" xr:uid="{212239D6-52A8-4262-935D-0636E2893F3D}"/>
-    <hyperlink ref="M30" r:id="rId5" xr:uid="{CDA6E05B-22C8-4AC5-B3ED-2A136AD0105B}"/>
-    <hyperlink ref="M33" r:id="rId6" xr:uid="{6B551770-F711-4290-B931-66758D2F3CE5}"/>
-    <hyperlink ref="M48" r:id="rId7" xr:uid="{1E5EF24B-BE1E-423D-88B0-48D760E925AF}"/>
+    <hyperlink ref="U12" r:id="rId2" xr:uid="{388E2DBE-13B4-4DFC-B631-C71ED8460DF4}"/>
+    <hyperlink ref="U15" r:id="rId3" xr:uid="{E8621780-EABA-4E47-B70B-6F9FF00F06C5}"/>
+    <hyperlink ref="M17" r:id="rId4" xr:uid="{212239D6-52A8-4262-935D-0636E2893F3D}"/>
+    <hyperlink ref="M29" r:id="rId5" xr:uid="{CDA6E05B-22C8-4AC5-B3ED-2A136AD0105B}"/>
+    <hyperlink ref="M32" r:id="rId6" xr:uid="{6B551770-F711-4290-B931-66758D2F3CE5}"/>
+    <hyperlink ref="M47" r:id="rId7" xr:uid="{1E5EF24B-BE1E-423D-88B0-48D760E925AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FA0166-6AB1-4E60-A273-9F5F93ADEA9C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD76"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>